--- a/biology/Histoire de la zoologie et de la botanique/Charles_Walter_De_Vis/Charles_Walter_De_Vis.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Walter_De_Vis/Charles_Walter_De_Vis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Walter De Vis, née le 9 mai 1829 à Birmingham en Angleterre, et mort le 30 avril 1915) à Brisbane en Australie, est un zoologiste, ornithologue et ecclésiastique anglais. Né Devis, il adopte la graphie « De Vis » vers 1882.
 Il renonce rapidement à ses fonctions ecclésiastiques pour se consacrer aux sciences, d'abord en Angleterre puis en Australie.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à l'université de Cambridge (Diplôme en 1851), il devient « curé » de Brecon, Somersetshire ; puis conservateur du musée de Queen's Park à Manchester.
 Arrivé en Australie en 1870, il s'installe dans la région de Rockhampton ; contribuant à des articles sur le Queensland entre 1880 et 1881, sous le nom de plume de « Thickthorn ».
